--- a/TestData/Sample2.xlsx
+++ b/TestData/Sample2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/TestData/Sample2.xlsx
+++ b/TestData/Sample2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{83A11AE0-4B78-4C5D-A95A-A5A53086BBF3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,11 +360,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D1" sqref="D1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
